--- a/Lifting_Progress_Tracker.xlsx
+++ b/Lifting_Progress_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euany\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8222032-4171-450C-B495-8F362663F3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D989D-3959-4BCB-AA41-E095707AFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -2947,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3242,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FE3EB6-8CDC-4E04-8AE3-61B94A4401C7}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Lifting_Progress_Tracker.xlsx
+++ b/Lifting_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euany\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D989D-3959-4BCB-AA41-E095707AFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611C3C0-D7CE-4FA7-943A-E0AD33A7DFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Exercise:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>backsquat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2945,15 +2948,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2969,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2977,7 +2980,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2987,8 +2990,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2999,7 +3005,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3010,7 +3016,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3021,7 +3027,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3032,7 +3038,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3043,7 +3049,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3054,7 +3060,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3065,7 +3071,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3076,7 +3082,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3087,7 +3093,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3098,7 +3104,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3109,7 +3115,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3120,7 +3126,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
